--- a/Code/Results/Cases/Case_3_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.995637782964042</v>
+        <v>1.032805416042343</v>
       </c>
       <c r="D2">
-        <v>1.013600951940711</v>
+        <v>1.034554572569423</v>
       </c>
       <c r="E2">
-        <v>1.011028799189829</v>
+        <v>1.042269083816134</v>
       </c>
       <c r="F2">
-        <v>1.018645136423008</v>
+        <v>1.053454673562189</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041029680280446</v>
+        <v>1.033340783166479</v>
       </c>
       <c r="J2">
-        <v>1.017949754649885</v>
+        <v>1.037933617019257</v>
       </c>
       <c r="K2">
-        <v>1.024874000857301</v>
+        <v>1.037353712205781</v>
       </c>
       <c r="L2">
-        <v>1.022336594207702</v>
+        <v>1.045046248859688</v>
       </c>
       <c r="M2">
-        <v>1.029850685234033</v>
+        <v>1.056200596468772</v>
       </c>
       <c r="N2">
-        <v>1.009545121233457</v>
+        <v>1.016555306158375</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001011205765619</v>
+        <v>1.033927637738422</v>
       </c>
       <c r="D3">
-        <v>1.017365872009073</v>
+        <v>1.035352976578142</v>
       </c>
       <c r="E3">
-        <v>1.015641802885125</v>
+        <v>1.043287129538982</v>
       </c>
       <c r="F3">
-        <v>1.02382561824016</v>
+        <v>1.054607117566863</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042295899957082</v>
+        <v>1.033537193330002</v>
       </c>
       <c r="J3">
-        <v>1.021474342199556</v>
+        <v>1.038697410743754</v>
       </c>
       <c r="K3">
-        <v>1.027781272298801</v>
+        <v>1.037961356930927</v>
       </c>
       <c r="L3">
-        <v>1.026078380635828</v>
+        <v>1.045874548556565</v>
       </c>
       <c r="M3">
-        <v>1.034162458323629</v>
+        <v>1.057165219297967</v>
       </c>
       <c r="N3">
-        <v>1.010758365574898</v>
+        <v>1.016813969316331</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004408210412419</v>
+        <v>1.034653838272495</v>
       </c>
       <c r="D4">
-        <v>1.019748373542875</v>
+        <v>1.035869423301159</v>
       </c>
       <c r="E4">
-        <v>1.018564381129472</v>
+        <v>1.043946271417894</v>
       </c>
       <c r="F4">
-        <v>1.027107873896178</v>
+        <v>1.055353362840548</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043085451845241</v>
+        <v>1.033662883921198</v>
       </c>
       <c r="J4">
-        <v>1.023699821967295</v>
+        <v>1.039191153557035</v>
       </c>
       <c r="K4">
-        <v>1.02961415546899</v>
+        <v>1.038353718259019</v>
       </c>
       <c r="L4">
-        <v>1.028443796855284</v>
+        <v>1.046410305520171</v>
       </c>
       <c r="M4">
-        <v>1.036889779236655</v>
+        <v>1.057789350348989</v>
       </c>
       <c r="N4">
-        <v>1.011523807230172</v>
+        <v>1.016981037712857</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005817966067445</v>
+        <v>1.034959145246177</v>
       </c>
       <c r="D5">
-        <v>1.020737600154448</v>
+        <v>1.03608649549964</v>
       </c>
       <c r="E5">
-        <v>1.01977870624242</v>
+        <v>1.044223470093225</v>
       </c>
       <c r="F5">
-        <v>1.028471692588548</v>
+        <v>1.055667213195866</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043410442294522</v>
+        <v>1.03371538897224</v>
       </c>
       <c r="J5">
-        <v>1.024622697206928</v>
+        <v>1.039398607591851</v>
       </c>
       <c r="K5">
-        <v>1.030373529292344</v>
+        <v>1.038518469246502</v>
       </c>
       <c r="L5">
-        <v>1.029425372776632</v>
+        <v>1.046635488003116</v>
       </c>
       <c r="M5">
-        <v>1.038021917147415</v>
+        <v>1.058051724613011</v>
       </c>
       <c r="N5">
-        <v>1.011841068468897</v>
+        <v>1.017051200447921</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006053616781773</v>
+        <v>1.035010408372245</v>
       </c>
       <c r="D6">
-        <v>1.020902982964446</v>
+        <v>1.036122940404062</v>
       </c>
       <c r="E6">
-        <v>1.019981773405904</v>
+        <v>1.044270018569346</v>
       </c>
       <c r="F6">
-        <v>1.028699762211356</v>
+        <v>1.05571991761561</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043464608178595</v>
+        <v>1.033724185136966</v>
       </c>
       <c r="J6">
-        <v>1.024776920035117</v>
+        <v>1.039433433271521</v>
       </c>
       <c r="K6">
-        <v>1.030500387572857</v>
+        <v>1.038546120065156</v>
       </c>
       <c r="L6">
-        <v>1.0295894446307</v>
+        <v>1.046673294219591</v>
       </c>
       <c r="M6">
-        <v>1.038211178247214</v>
+        <v>1.058095777800828</v>
       </c>
       <c r="N6">
-        <v>1.011894076947057</v>
+        <v>1.017062976808292</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004427118699709</v>
+        <v>1.034657917750047</v>
       </c>
       <c r="D7">
-        <v>1.019761639670525</v>
+        <v>1.035872323995972</v>
       </c>
       <c r="E7">
-        <v>1.018580662528327</v>
+        <v>1.043949974985069</v>
       </c>
       <c r="F7">
-        <v>1.027126159464439</v>
+        <v>1.055357556017719</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043089821396262</v>
+        <v>1.033663586813819</v>
       </c>
       <c r="J7">
-        <v>1.023712202810586</v>
+        <v>1.039193926021445</v>
       </c>
       <c r="K7">
-        <v>1.029624345642165</v>
+        <v>1.038355920446795</v>
       </c>
       <c r="L7">
-        <v>1.028456962544072</v>
+        <v>1.046413314614831</v>
       </c>
       <c r="M7">
-        <v>1.036904962867984</v>
+        <v>1.057792856247472</v>
       </c>
       <c r="N7">
-        <v>1.011528064081815</v>
+        <v>1.016981975516948</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9974708078762442</v>
+        <v>1.033184666628012</v>
       </c>
       <c r="D8">
-        <v>1.014884723883923</v>
+        <v>1.034824432782416</v>
       </c>
       <c r="E8">
-        <v>1.012601065456324</v>
+        <v>1.042613054737378</v>
       </c>
       <c r="F8">
-        <v>1.020410794330828</v>
+        <v>1.053844036411037</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041463889639868</v>
+        <v>1.033407450684949</v>
       </c>
       <c r="J8">
-        <v>1.019152631870793</v>
+        <v>1.038191844735634</v>
       </c>
       <c r="K8">
-        <v>1.025866777291908</v>
+        <v>1.037559239437599</v>
       </c>
       <c r="L8">
-        <v>1.023613010337856</v>
+        <v>1.045326219833951</v>
       </c>
       <c r="M8">
-        <v>1.031321207842713</v>
+        <v>1.056526604591445</v>
       </c>
       <c r="N8">
-        <v>1.009959304719751</v>
+        <v>1.016642785491787</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9845620617218792</v>
+        <v>1.03058894343929</v>
       </c>
       <c r="D9">
-        <v>1.00585757415166</v>
+        <v>1.032976595726709</v>
       </c>
       <c r="E9">
-        <v>1.001558003232608</v>
+        <v>1.040260275584839</v>
       </c>
       <c r="F9">
-        <v>1.008009527259461</v>
+        <v>1.051181120023462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038361504348114</v>
+        <v>1.03294538995349</v>
       </c>
       <c r="J9">
-        <v>1.010672004176901</v>
+        <v>1.036422345106051</v>
       </c>
       <c r="K9">
-        <v>1.018856325834412</v>
+        <v>1.036149067884325</v>
       </c>
       <c r="L9">
-        <v>1.014625853395129</v>
+        <v>1.043409018141187</v>
       </c>
       <c r="M9">
-        <v>1.020973978464028</v>
+        <v>1.054294957528947</v>
       </c>
       <c r="N9">
-        <v>1.007036878769558</v>
+        <v>1.016042763317279</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9754604497054552</v>
+        <v>1.028858634624514</v>
       </c>
       <c r="D10">
-        <v>0.9995141891896591</v>
+        <v>1.031743834380871</v>
       </c>
       <c r="E10">
-        <v>0.9938121889922811</v>
+        <v>1.038693793872965</v>
       </c>
       <c r="F10">
-        <v>0.9993105718338837</v>
+        <v>1.049408575708672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036119753177487</v>
+        <v>1.032630150963067</v>
       </c>
       <c r="J10">
-        <v>1.004682690246867</v>
+        <v>1.035240176185957</v>
       </c>
       <c r="K10">
-        <v>1.013892220644173</v>
+        <v>1.035204708976158</v>
       </c>
       <c r="L10">
-        <v>1.008294072329849</v>
+        <v>1.042129795368322</v>
       </c>
       <c r="M10">
-        <v>1.013692285286266</v>
+        <v>1.052806941273512</v>
       </c>
       <c r="N10">
-        <v>1.004970388656168</v>
+        <v>1.015641186362753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9713873209229185</v>
+        <v>1.028109420739306</v>
       </c>
       <c r="D11">
-        <v>0.9966819195082638</v>
+        <v>1.031209831502662</v>
       </c>
       <c r="E11">
-        <v>0.990356423657672</v>
+        <v>1.038015970230963</v>
       </c>
       <c r="F11">
-        <v>0.9954292456598165</v>
+        <v>1.04864168681159</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035104445159223</v>
+        <v>1.032491942605356</v>
       </c>
       <c r="J11">
-        <v>1.002000841896038</v>
+        <v>1.034727686988734</v>
       </c>
       <c r="K11">
-        <v>1.01166668242418</v>
+        <v>1.034794784324038</v>
       </c>
       <c r="L11">
-        <v>1.005462524370186</v>
+        <v>1.041575616303104</v>
       </c>
       <c r="M11">
-        <v>1.010437877573582</v>
+        <v>1.052162549614698</v>
       </c>
       <c r="N11">
-        <v>1.004044587440367</v>
+        <v>1.015466928626736</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9698531802026066</v>
+        <v>1.027831131383234</v>
       </c>
       <c r="D12">
-        <v>0.9956162544628848</v>
+        <v>1.031011447771294</v>
       </c>
       <c r="E12">
-        <v>0.9890565042941768</v>
+        <v>1.037764267084053</v>
       </c>
       <c r="F12">
-        <v>0.9939691805061933</v>
+        <v>1.048356924833739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034720287627065</v>
+        <v>1.032440349312257</v>
       </c>
       <c r="J12">
-        <v>1.000990570474907</v>
+        <v>1.034537234806012</v>
       </c>
       <c r="K12">
-        <v>1.010827924803747</v>
+        <v>1.034642368059859</v>
       </c>
       <c r="L12">
-        <v>1.004396411167382</v>
+        <v>1.041369728998852</v>
       </c>
       <c r="M12">
-        <v>1.009212840809786</v>
+        <v>1.051923182727753</v>
       </c>
       <c r="N12">
-        <v>1.003695769862341</v>
+        <v>1.015402145579478</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9701832410274273</v>
+        <v>1.027890825320992</v>
       </c>
       <c r="D13">
-        <v>0.995845473486758</v>
+        <v>1.031054003168865</v>
       </c>
       <c r="E13">
-        <v>0.9893360958149711</v>
+        <v>1.037818255068598</v>
       </c>
       <c r="F13">
-        <v>0.9942832201222168</v>
+        <v>1.048418002969029</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034803014214125</v>
+        <v>1.032451427858087</v>
       </c>
       <c r="J13">
-        <v>1.001207929858745</v>
+        <v>1.034578091564397</v>
       </c>
       <c r="K13">
-        <v>1.011008399785119</v>
+        <v>1.034675068745749</v>
       </c>
       <c r="L13">
-        <v>1.004625759932525</v>
+        <v>1.04141389436455</v>
       </c>
       <c r="M13">
-        <v>1.009476365191665</v>
+        <v>1.051974528249329</v>
       </c>
       <c r="N13">
-        <v>1.003770820388415</v>
+        <v>1.015416044296172</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9712609491085108</v>
+        <v>1.028086417219376</v>
       </c>
       <c r="D14">
-        <v>0.9965941141901093</v>
+        <v>1.031193433679047</v>
       </c>
       <c r="E14">
-        <v>0.9902493104220594</v>
+        <v>1.037995162929518</v>
       </c>
       <c r="F14">
-        <v>0.9953089378991353</v>
+        <v>1.048618146369318</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035072835897412</v>
+        <v>1.03248768312118</v>
       </c>
       <c r="J14">
-        <v>1.001917625493577</v>
+        <v>1.034711946008031</v>
       </c>
       <c r="K14">
-        <v>1.011597601232185</v>
+        <v>1.034782188649379</v>
       </c>
       <c r="L14">
-        <v>1.005374697047119</v>
+        <v>1.041558598423234</v>
       </c>
       <c r="M14">
-        <v>1.01033695214642</v>
+        <v>1.052142763703139</v>
       </c>
       <c r="N14">
-        <v>1.004015856403644</v>
+        <v>1.015461574781731</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9719221088726204</v>
+        <v>1.028206928079128</v>
       </c>
       <c r="D15">
-        <v>0.9970535452848208</v>
+        <v>1.031279337276187</v>
       </c>
       <c r="E15">
-        <v>0.990809781469982</v>
+        <v>1.038104171063148</v>
       </c>
       <c r="F15">
-        <v>0.9959384465839076</v>
+        <v>1.048741473854485</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035238140642647</v>
+        <v>1.032509987189924</v>
       </c>
       <c r="J15">
-        <v>1.002352996267284</v>
+        <v>1.034794406094708</v>
       </c>
       <c r="K15">
-        <v>1.01195900420536</v>
+        <v>1.034848168613288</v>
       </c>
       <c r="L15">
-        <v>1.0058342136541</v>
+        <v>1.041647749988157</v>
       </c>
       <c r="M15">
-        <v>1.010865010370735</v>
+        <v>1.052246417628587</v>
       </c>
       <c r="N15">
-        <v>1.004166168721867</v>
+        <v>1.015489620199523</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9757278741262235</v>
+        <v>1.028908357831874</v>
       </c>
       <c r="D16">
-        <v>0.9997002900399735</v>
+        <v>1.031779269998947</v>
       </c>
       <c r="E16">
-        <v>0.9940393087099042</v>
+        <v>1.038738788735502</v>
       </c>
       <c r="F16">
-        <v>0.9995656520113567</v>
+        <v>1.049459484914057</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036186168806688</v>
+        <v>1.032639287417153</v>
       </c>
       <c r="J16">
-        <v>1.004858743459385</v>
+        <v>1.035274175683685</v>
       </c>
       <c r="K16">
-        <v>1.014038264288233</v>
+        <v>1.035231893015605</v>
       </c>
       <c r="L16">
-        <v>1.008480028829036</v>
+        <v>1.04216656874595</v>
       </c>
       <c r="M16">
-        <v>1.01390605235671</v>
+        <v>1.052849705891599</v>
       </c>
       <c r="N16">
-        <v>1.005031154866251</v>
+        <v>1.015652743428486</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9780788497558921</v>
+        <v>1.029348351059594</v>
       </c>
       <c r="D17">
-        <v>1.001337089043005</v>
+        <v>1.03209280870126</v>
       </c>
       <c r="E17">
-        <v>0.9960371751450953</v>
+        <v>1.039136994083454</v>
       </c>
       <c r="F17">
-        <v>1.001809434959434</v>
+        <v>1.04991004371489</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036768676896601</v>
+        <v>1.032719936823752</v>
       </c>
       <c r="J17">
-        <v>1.006406293717026</v>
+        <v>1.035574960953078</v>
       </c>
       <c r="K17">
-        <v>1.015321714791283</v>
+        <v>1.035472322446212</v>
       </c>
       <c r="L17">
-        <v>1.010115045647342</v>
+        <v>1.042491938246249</v>
       </c>
       <c r="M17">
-        <v>1.015785812434411</v>
+        <v>1.053228113374853</v>
       </c>
       <c r="N17">
-        <v>1.005565250867261</v>
+        <v>1.015754966628978</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.979437488942222</v>
+        <v>1.029604993792824</v>
       </c>
       <c r="D18">
-        <v>1.002283608828659</v>
+        <v>1.032275670340162</v>
       </c>
       <c r="E18">
-        <v>0.9971927489936918</v>
+        <v>1.039369306215056</v>
       </c>
       <c r="F18">
-        <v>1.003107218799965</v>
+        <v>1.050172908301099</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037104162616732</v>
+        <v>1.032766813479279</v>
       </c>
       <c r="J18">
-        <v>1.007300480317206</v>
+        <v>1.035750345829592</v>
       </c>
       <c r="K18">
-        <v>1.016063040291267</v>
+        <v>1.035612463324249</v>
       </c>
       <c r="L18">
-        <v>1.011060115827161</v>
+        <v>1.042681695019562</v>
       </c>
       <c r="M18">
-        <v>1.016872532285066</v>
+        <v>1.053448825259733</v>
       </c>
       <c r="N18">
-        <v>1.005873809143208</v>
+        <v>1.015814555776721</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9798986442491276</v>
+        <v>1.029692502728573</v>
       </c>
       <c r="D19">
-        <v>1.002604979892693</v>
+        <v>1.032338018006442</v>
       </c>
       <c r="E19">
-        <v>0.9975851455102094</v>
+        <v>1.039448526409392</v>
       </c>
       <c r="F19">
-        <v>1.003547900964206</v>
+        <v>1.050262548741687</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037217837772925</v>
+        <v>1.032782769257405</v>
       </c>
       <c r="J19">
-        <v>1.007603961592971</v>
+        <v>1.035810137700364</v>
       </c>
       <c r="K19">
-        <v>1.016314596084616</v>
+        <v>1.035660231200551</v>
       </c>
       <c r="L19">
-        <v>1.011380925060764</v>
+        <v>1.042746392819368</v>
       </c>
       <c r="M19">
-        <v>1.017241456482252</v>
+        <v>1.053524081170816</v>
       </c>
       <c r="N19">
-        <v>1.005978523649954</v>
+        <v>1.015834868045368</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9778279296923653</v>
+        <v>1.029301143738377</v>
       </c>
       <c r="D20">
-        <v>1.001162329338563</v>
+        <v>1.032059171052249</v>
       </c>
       <c r="E20">
-        <v>0.9958238382305141</v>
+        <v>1.039094265694877</v>
       </c>
       <c r="F20">
-        <v>1.001569841646055</v>
+        <v>1.049861696687456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03670662439003</v>
+        <v>1.032711300949331</v>
       </c>
       <c r="J20">
-        <v>1.006241138402551</v>
+        <v>1.035542695550714</v>
       </c>
       <c r="K20">
-        <v>1.015184771330844</v>
+        <v>1.035446536733483</v>
       </c>
       <c r="L20">
-        <v>1.009940520053472</v>
+        <v>1.042457031844379</v>
       </c>
       <c r="M20">
-        <v>1.015585143333281</v>
+        <v>1.053187514539691</v>
       </c>
       <c r="N20">
-        <v>1.005508256638415</v>
+        <v>1.015744002762139</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9709441876515705</v>
+        <v>1.02802882023325</v>
       </c>
       <c r="D21">
-        <v>0.9963740411419174</v>
+        <v>1.031152375731659</v>
       </c>
       <c r="E21">
-        <v>0.9899808497728791</v>
+        <v>1.037943066024169</v>
       </c>
       <c r="F21">
-        <v>0.9950074063286977</v>
+        <v>1.048559206517055</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034993576856779</v>
+        <v>1.032477013931846</v>
       </c>
       <c r="J21">
-        <v>1.00170903442285</v>
+        <v>1.034672531722416</v>
       </c>
       <c r="K21">
-        <v>1.011424435590949</v>
+        <v>1.034750648704336</v>
       </c>
       <c r="L21">
-        <v>1.005154557081136</v>
+        <v>1.041515987806387</v>
       </c>
       <c r="M21">
-        <v>1.010083986301477</v>
+        <v>1.052093222866469</v>
       </c>
       <c r="N21">
-        <v>1.003943837944351</v>
+        <v>1.015448168733766</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9664926900274069</v>
+        <v>1.027228871178122</v>
       </c>
       <c r="D22">
-        <v>0.99328413518077</v>
+        <v>1.030582056572546</v>
       </c>
       <c r="E22">
-        <v>0.986212296053572</v>
+        <v>1.037219670160321</v>
       </c>
       <c r="F22">
-        <v>0.9907744302387007</v>
+        <v>1.047740826873997</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033875678851039</v>
+        <v>1.03232822404597</v>
       </c>
       <c r="J22">
-        <v>0.9987774007295835</v>
+        <v>1.034124899208959</v>
       </c>
       <c r="K22">
-        <v>1.008989819079148</v>
+        <v>1.034312236823816</v>
       </c>
       <c r="L22">
-        <v>1.002061929201395</v>
+        <v>1.040924081415303</v>
       </c>
       <c r="M22">
-        <v>1.006530889943023</v>
+        <v>1.051405133599678</v>
       </c>
       <c r="N22">
-        <v>1.002931525390772</v>
+        <v>1.015261842321871</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9688646970863772</v>
+        <v>1.027652938628012</v>
       </c>
       <c r="D23">
-        <v>0.9949299502585933</v>
+        <v>1.030884410660365</v>
       </c>
       <c r="E23">
-        <v>0.9882194250034612</v>
+        <v>1.037603117344726</v>
       </c>
       <c r="F23">
-        <v>0.9930289544798943</v>
+        <v>1.048174613705914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034472284271233</v>
+        <v>1.032407241070673</v>
       </c>
       <c r="J23">
-        <v>1.000339594620553</v>
+        <v>1.034415259554495</v>
       </c>
       <c r="K23">
-        <v>1.010287361717887</v>
+        <v>1.034544730653955</v>
       </c>
       <c r="L23">
-        <v>1.003709609024622</v>
+        <v>1.041237884564223</v>
       </c>
       <c r="M23">
-        <v>1.00842373928941</v>
+        <v>1.051769909033847</v>
       </c>
       <c r="N23">
-        <v>1.003470990733559</v>
+        <v>1.015360648184825</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9779413486454942</v>
+        <v>1.029322474687878</v>
       </c>
       <c r="D24">
-        <v>1.001241321001578</v>
+        <v>1.032074370520172</v>
       </c>
       <c r="E24">
-        <v>0.9959202660493131</v>
+        <v>1.039113572673073</v>
       </c>
       <c r="F24">
-        <v>1.00167813738849</v>
+        <v>1.049883542438527</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036734676453614</v>
+        <v>1.032715203638337</v>
       </c>
       <c r="J24">
-        <v>1.006315791104258</v>
+        <v>1.03555727507646</v>
       </c>
       <c r="K24">
-        <v>1.015246672663435</v>
+        <v>1.035458188488383</v>
       </c>
       <c r="L24">
-        <v>1.010019407193987</v>
+        <v>1.042472804624223</v>
       </c>
       <c r="M24">
-        <v>1.01567584700511</v>
+        <v>1.053205859426512</v>
       </c>
       <c r="N24">
-        <v>1.00553401903772</v>
+        <v>1.015748956972551</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9879821169711235</v>
+        <v>1.031259965827035</v>
       </c>
       <c r="D25">
-        <v>1.008246000155843</v>
+        <v>1.033454460450133</v>
       </c>
       <c r="E25">
-        <v>1.0044771568233</v>
+        <v>1.040868165516526</v>
       </c>
       <c r="F25">
-        <v>1.011287727932604</v>
+        <v>1.051869064342855</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039193034901048</v>
+        <v>1.033066112983435</v>
       </c>
       <c r="J25">
-        <v>1.012920811904569</v>
+        <v>1.036880243382014</v>
       </c>
       <c r="K25">
-        <v>1.020717642168309</v>
+        <v>1.036514379389026</v>
       </c>
       <c r="L25">
-        <v>1.017006366014842</v>
+        <v>1.043904851720169</v>
       </c>
       <c r="M25">
-        <v>1.023713307586406</v>
+        <v>1.054871934926294</v>
       </c>
       <c r="N25">
-        <v>1.007812299227034</v>
+        <v>1.016198158896076</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_85/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_85/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032805416042343</v>
+        <v>0.9956377829640415</v>
       </c>
       <c r="D2">
-        <v>1.034554572569423</v>
+        <v>1.01360095194071</v>
       </c>
       <c r="E2">
-        <v>1.042269083816134</v>
+        <v>1.011028799189828</v>
       </c>
       <c r="F2">
-        <v>1.053454673562189</v>
+        <v>1.018645136423007</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033340783166479</v>
+        <v>1.041029680280445</v>
       </c>
       <c r="J2">
-        <v>1.037933617019257</v>
+        <v>1.017949754649885</v>
       </c>
       <c r="K2">
-        <v>1.037353712205781</v>
+        <v>1.024874000857301</v>
       </c>
       <c r="L2">
-        <v>1.045046248859688</v>
+        <v>1.022336594207701</v>
       </c>
       <c r="M2">
-        <v>1.056200596468772</v>
+        <v>1.029850685234032</v>
       </c>
       <c r="N2">
-        <v>1.016555306158375</v>
+        <v>1.009545121233457</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033927637738422</v>
+        <v>1.001011205765619</v>
       </c>
       <c r="D3">
-        <v>1.035352976578142</v>
+        <v>1.017365872009073</v>
       </c>
       <c r="E3">
-        <v>1.043287129538982</v>
+        <v>1.015641802885125</v>
       </c>
       <c r="F3">
-        <v>1.054607117566863</v>
+        <v>1.023825618240159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033537193330002</v>
+        <v>1.042295899957082</v>
       </c>
       <c r="J3">
-        <v>1.038697410743754</v>
+        <v>1.021474342199556</v>
       </c>
       <c r="K3">
-        <v>1.037961356930927</v>
+        <v>1.027781272298801</v>
       </c>
       <c r="L3">
-        <v>1.045874548556565</v>
+        <v>1.026078380635828</v>
       </c>
       <c r="M3">
-        <v>1.057165219297967</v>
+        <v>1.034162458323629</v>
       </c>
       <c r="N3">
-        <v>1.016813969316331</v>
+        <v>1.010758365574898</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034653838272495</v>
+        <v>1.004408210412418</v>
       </c>
       <c r="D4">
-        <v>1.035869423301159</v>
+        <v>1.019748373542874</v>
       </c>
       <c r="E4">
-        <v>1.043946271417894</v>
+        <v>1.018564381129472</v>
       </c>
       <c r="F4">
-        <v>1.055353362840548</v>
+        <v>1.027107873896177</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033662883921198</v>
+        <v>1.04308545184524</v>
       </c>
       <c r="J4">
-        <v>1.039191153557035</v>
+        <v>1.023699821967294</v>
       </c>
       <c r="K4">
-        <v>1.038353718259019</v>
+        <v>1.029614155468989</v>
       </c>
       <c r="L4">
-        <v>1.046410305520171</v>
+        <v>1.028443796855284</v>
       </c>
       <c r="M4">
-        <v>1.057789350348989</v>
+        <v>1.036889779236654</v>
       </c>
       <c r="N4">
-        <v>1.016981037712857</v>
+        <v>1.011523807230172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034959145246177</v>
+        <v>1.005817966067445</v>
       </c>
       <c r="D5">
-        <v>1.03608649549964</v>
+        <v>1.020737600154449</v>
       </c>
       <c r="E5">
-        <v>1.044223470093225</v>
+        <v>1.019778706242421</v>
       </c>
       <c r="F5">
-        <v>1.055667213195866</v>
+        <v>1.028471692588548</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03371538897224</v>
+        <v>1.043410442294521</v>
       </c>
       <c r="J5">
-        <v>1.039398607591851</v>
+        <v>1.024622697206928</v>
       </c>
       <c r="K5">
-        <v>1.038518469246502</v>
+        <v>1.030373529292344</v>
       </c>
       <c r="L5">
-        <v>1.046635488003116</v>
+        <v>1.029425372776632</v>
       </c>
       <c r="M5">
-        <v>1.058051724613011</v>
+        <v>1.038021917147416</v>
       </c>
       <c r="N5">
-        <v>1.017051200447921</v>
+        <v>1.011841068468897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035010408372245</v>
+        <v>1.006053616781773</v>
       </c>
       <c r="D6">
-        <v>1.036122940404062</v>
+        <v>1.020902982964446</v>
       </c>
       <c r="E6">
-        <v>1.044270018569346</v>
+        <v>1.019981773405904</v>
       </c>
       <c r="F6">
-        <v>1.05571991761561</v>
+        <v>1.028699762211355</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033724185136966</v>
+        <v>1.043464608178595</v>
       </c>
       <c r="J6">
-        <v>1.039433433271521</v>
+        <v>1.024776920035117</v>
       </c>
       <c r="K6">
-        <v>1.038546120065156</v>
+        <v>1.030500387572857</v>
       </c>
       <c r="L6">
-        <v>1.046673294219591</v>
+        <v>1.0295894446307</v>
       </c>
       <c r="M6">
-        <v>1.058095777800828</v>
+        <v>1.038211178247213</v>
       </c>
       <c r="N6">
-        <v>1.017062976808292</v>
+        <v>1.011894076947058</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034657917750047</v>
+        <v>1.00442711869971</v>
       </c>
       <c r="D7">
-        <v>1.035872323995972</v>
+        <v>1.019761639670525</v>
       </c>
       <c r="E7">
-        <v>1.043949974985069</v>
+        <v>1.018580662528327</v>
       </c>
       <c r="F7">
-        <v>1.055357556017719</v>
+        <v>1.027126159464439</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033663586813819</v>
+        <v>1.043089821396262</v>
       </c>
       <c r="J7">
-        <v>1.039193926021445</v>
+        <v>1.023712202810586</v>
       </c>
       <c r="K7">
-        <v>1.038355920446795</v>
+        <v>1.029624345642165</v>
       </c>
       <c r="L7">
-        <v>1.046413314614831</v>
+        <v>1.028456962544072</v>
       </c>
       <c r="M7">
-        <v>1.057792856247472</v>
+        <v>1.036904962867984</v>
       </c>
       <c r="N7">
-        <v>1.016981975516948</v>
+        <v>1.011528064081815</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033184666628012</v>
+        <v>0.9974708078762431</v>
       </c>
       <c r="D8">
-        <v>1.034824432782416</v>
+        <v>1.014884723883922</v>
       </c>
       <c r="E8">
-        <v>1.042613054737378</v>
+        <v>1.012601065456323</v>
       </c>
       <c r="F8">
-        <v>1.053844036411037</v>
+        <v>1.020410794330827</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033407450684949</v>
+        <v>1.041463889639868</v>
       </c>
       <c r="J8">
-        <v>1.038191844735634</v>
+        <v>1.019152631870792</v>
       </c>
       <c r="K8">
-        <v>1.037559239437599</v>
+        <v>1.025866777291907</v>
       </c>
       <c r="L8">
-        <v>1.045326219833951</v>
+        <v>1.023613010337855</v>
       </c>
       <c r="M8">
-        <v>1.056526604591445</v>
+        <v>1.031321207842712</v>
       </c>
       <c r="N8">
-        <v>1.016642785491787</v>
+        <v>1.00995930471975</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03058894343929</v>
+        <v>0.98456206172188</v>
       </c>
       <c r="D9">
-        <v>1.032976595726709</v>
+        <v>1.005857574151661</v>
       </c>
       <c r="E9">
-        <v>1.040260275584839</v>
+        <v>1.001558003232609</v>
       </c>
       <c r="F9">
-        <v>1.051181120023462</v>
+        <v>1.008009527259461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03294538995349</v>
+        <v>1.038361504348114</v>
       </c>
       <c r="J9">
-        <v>1.036422345106051</v>
+        <v>1.010672004176902</v>
       </c>
       <c r="K9">
-        <v>1.036149067884325</v>
+        <v>1.018856325834413</v>
       </c>
       <c r="L9">
-        <v>1.043409018141187</v>
+        <v>1.014625853395129</v>
       </c>
       <c r="M9">
-        <v>1.054294957528947</v>
+        <v>1.020973978464028</v>
       </c>
       <c r="N9">
-        <v>1.016042763317279</v>
+        <v>1.007036878769559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028858634624514</v>
+        <v>0.9754604497054548</v>
       </c>
       <c r="D10">
-        <v>1.031743834380871</v>
+        <v>0.9995141891896586</v>
       </c>
       <c r="E10">
-        <v>1.038693793872965</v>
+        <v>0.9938121889922804</v>
       </c>
       <c r="F10">
-        <v>1.049408575708672</v>
+        <v>0.9993105718338828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032630150963067</v>
+        <v>1.036119753177487</v>
       </c>
       <c r="J10">
-        <v>1.035240176185957</v>
+        <v>1.004682690246866</v>
       </c>
       <c r="K10">
-        <v>1.035204708976158</v>
+        <v>1.013892220644173</v>
       </c>
       <c r="L10">
-        <v>1.042129795368322</v>
+        <v>1.008294072329848</v>
       </c>
       <c r="M10">
-        <v>1.052806941273512</v>
+        <v>1.013692285286265</v>
       </c>
       <c r="N10">
-        <v>1.015641186362753</v>
+        <v>1.004970388656168</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028109420739306</v>
+        <v>0.9713873209229182</v>
       </c>
       <c r="D11">
-        <v>1.031209831502662</v>
+        <v>0.9966819195082635</v>
       </c>
       <c r="E11">
-        <v>1.038015970230963</v>
+        <v>0.9903564236576718</v>
       </c>
       <c r="F11">
-        <v>1.04864168681159</v>
+        <v>0.9954292456598167</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032491942605356</v>
+        <v>1.035104445159223</v>
       </c>
       <c r="J11">
-        <v>1.034727686988734</v>
+        <v>1.002000841896038</v>
       </c>
       <c r="K11">
-        <v>1.034794784324038</v>
+        <v>1.01166668242418</v>
       </c>
       <c r="L11">
-        <v>1.041575616303104</v>
+        <v>1.005462524370185</v>
       </c>
       <c r="M11">
-        <v>1.052162549614698</v>
+        <v>1.010437877573582</v>
       </c>
       <c r="N11">
-        <v>1.015466928626736</v>
+        <v>1.004044587440367</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027831131383234</v>
+        <v>0.9698531802026056</v>
       </c>
       <c r="D12">
-        <v>1.031011447771294</v>
+        <v>0.9956162544628838</v>
       </c>
       <c r="E12">
-        <v>1.037764267084053</v>
+        <v>0.989056504294176</v>
       </c>
       <c r="F12">
-        <v>1.048356924833739</v>
+        <v>0.9939691805061921</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032440349312257</v>
+        <v>1.034720287627064</v>
       </c>
       <c r="J12">
-        <v>1.034537234806012</v>
+        <v>1.000990570474906</v>
       </c>
       <c r="K12">
-        <v>1.034642368059859</v>
+        <v>1.010827924803746</v>
       </c>
       <c r="L12">
-        <v>1.041369728998852</v>
+        <v>1.004396411167381</v>
       </c>
       <c r="M12">
-        <v>1.051923182727753</v>
+        <v>1.009212840809784</v>
       </c>
       <c r="N12">
-        <v>1.015402145579478</v>
+        <v>1.003695769862341</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027890825320992</v>
+        <v>0.970183241027427</v>
       </c>
       <c r="D13">
-        <v>1.031054003168865</v>
+        <v>0.9958454734867579</v>
       </c>
       <c r="E13">
-        <v>1.037818255068598</v>
+        <v>0.9893360958149706</v>
       </c>
       <c r="F13">
-        <v>1.048418002969029</v>
+        <v>0.9942832201222161</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032451427858087</v>
+        <v>1.034803014214125</v>
       </c>
       <c r="J13">
-        <v>1.034578091564397</v>
+        <v>1.001207929858744</v>
       </c>
       <c r="K13">
-        <v>1.034675068745749</v>
+        <v>1.011008399785118</v>
       </c>
       <c r="L13">
-        <v>1.04141389436455</v>
+        <v>1.004625759932524</v>
       </c>
       <c r="M13">
-        <v>1.051974528249329</v>
+        <v>1.009476365191665</v>
       </c>
       <c r="N13">
-        <v>1.015416044296172</v>
+        <v>1.003770820388415</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028086417219376</v>
+        <v>0.9712609491085105</v>
       </c>
       <c r="D14">
-        <v>1.031193433679047</v>
+        <v>0.9965941141901091</v>
       </c>
       <c r="E14">
-        <v>1.037995162929518</v>
+        <v>0.990249310422059</v>
       </c>
       <c r="F14">
-        <v>1.048618146369318</v>
+        <v>0.9953089378991349</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03248768312118</v>
+        <v>1.035072835897412</v>
       </c>
       <c r="J14">
-        <v>1.034711946008031</v>
+        <v>1.001917625493577</v>
       </c>
       <c r="K14">
-        <v>1.034782188649379</v>
+        <v>1.011597601232184</v>
       </c>
       <c r="L14">
-        <v>1.041558598423234</v>
+        <v>1.005374697047118</v>
       </c>
       <c r="M14">
-        <v>1.052142763703139</v>
+        <v>1.010336952146419</v>
       </c>
       <c r="N14">
-        <v>1.015461574781731</v>
+        <v>1.004015856403644</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028206928079128</v>
+        <v>0.971922108872619</v>
       </c>
       <c r="D15">
-        <v>1.031279337276187</v>
+        <v>0.9970535452848198</v>
       </c>
       <c r="E15">
-        <v>1.038104171063148</v>
+        <v>0.9908097814699803</v>
       </c>
       <c r="F15">
-        <v>1.048741473854485</v>
+        <v>0.9959384465839058</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032509987189924</v>
+        <v>1.035238140642646</v>
       </c>
       <c r="J15">
-        <v>1.034794406094708</v>
+        <v>1.002352996267283</v>
       </c>
       <c r="K15">
-        <v>1.034848168613288</v>
+        <v>1.011959004205359</v>
       </c>
       <c r="L15">
-        <v>1.041647749988157</v>
+        <v>1.005834213654099</v>
       </c>
       <c r="M15">
-        <v>1.052246417628587</v>
+        <v>1.010865010370733</v>
       </c>
       <c r="N15">
-        <v>1.015489620199523</v>
+        <v>1.004166168721867</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028908357831874</v>
+        <v>0.9757278741262227</v>
       </c>
       <c r="D16">
-        <v>1.031779269998947</v>
+        <v>0.9997002900399727</v>
       </c>
       <c r="E16">
-        <v>1.038738788735502</v>
+        <v>0.9940393087099036</v>
       </c>
       <c r="F16">
-        <v>1.049459484914057</v>
+        <v>0.9995656520113561</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032639287417153</v>
+        <v>1.036186168806688</v>
       </c>
       <c r="J16">
-        <v>1.035274175683685</v>
+        <v>1.004858743459385</v>
       </c>
       <c r="K16">
-        <v>1.035231893015605</v>
+        <v>1.014038264288232</v>
       </c>
       <c r="L16">
-        <v>1.04216656874595</v>
+        <v>1.008480028829035</v>
       </c>
       <c r="M16">
-        <v>1.052849705891599</v>
+        <v>1.01390605235671</v>
       </c>
       <c r="N16">
-        <v>1.015652743428486</v>
+        <v>1.005031154866251</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029348351059594</v>
+        <v>0.9780788497558922</v>
       </c>
       <c r="D17">
-        <v>1.03209280870126</v>
+        <v>1.001337089043004</v>
       </c>
       <c r="E17">
-        <v>1.039136994083454</v>
+        <v>0.9960371751450953</v>
       </c>
       <c r="F17">
-        <v>1.04991004371489</v>
+        <v>1.001809434959435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032719936823752</v>
+        <v>1.036768676896601</v>
       </c>
       <c r="J17">
-        <v>1.035574960953078</v>
+        <v>1.006406293717026</v>
       </c>
       <c r="K17">
-        <v>1.035472322446212</v>
+        <v>1.015321714791283</v>
       </c>
       <c r="L17">
-        <v>1.042491938246249</v>
+        <v>1.010115045647342</v>
       </c>
       <c r="M17">
-        <v>1.053228113374853</v>
+        <v>1.015785812434411</v>
       </c>
       <c r="N17">
-        <v>1.015754966628978</v>
+        <v>1.005565250867261</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029604993792824</v>
+        <v>0.9794374889422216</v>
       </c>
       <c r="D18">
-        <v>1.032275670340162</v>
+        <v>1.002283608828659</v>
       </c>
       <c r="E18">
-        <v>1.039369306215056</v>
+        <v>0.9971927489936914</v>
       </c>
       <c r="F18">
-        <v>1.050172908301099</v>
+        <v>1.003107218799964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032766813479279</v>
+        <v>1.037104162616732</v>
       </c>
       <c r="J18">
-        <v>1.035750345829592</v>
+        <v>1.007300480317206</v>
       </c>
       <c r="K18">
-        <v>1.035612463324249</v>
+        <v>1.016063040291266</v>
       </c>
       <c r="L18">
-        <v>1.042681695019562</v>
+        <v>1.011060115827161</v>
       </c>
       <c r="M18">
-        <v>1.053448825259733</v>
+        <v>1.016872532285065</v>
       </c>
       <c r="N18">
-        <v>1.015814555776721</v>
+        <v>1.005873809143208</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029692502728573</v>
+        <v>0.9798986442491281</v>
       </c>
       <c r="D19">
-        <v>1.032338018006442</v>
+        <v>1.002604979892694</v>
       </c>
       <c r="E19">
-        <v>1.039448526409392</v>
+        <v>0.9975851455102094</v>
       </c>
       <c r="F19">
-        <v>1.050262548741687</v>
+        <v>1.003547900964206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032782769257405</v>
+        <v>1.037217837772925</v>
       </c>
       <c r="J19">
-        <v>1.035810137700364</v>
+        <v>1.007603961592972</v>
       </c>
       <c r="K19">
-        <v>1.035660231200551</v>
+        <v>1.016314596084617</v>
       </c>
       <c r="L19">
-        <v>1.042746392819368</v>
+        <v>1.011380925060765</v>
       </c>
       <c r="M19">
-        <v>1.053524081170816</v>
+        <v>1.017241456482252</v>
       </c>
       <c r="N19">
-        <v>1.015834868045368</v>
+        <v>1.005978523649954</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029301143738377</v>
+        <v>0.9778279296923651</v>
       </c>
       <c r="D20">
-        <v>1.032059171052249</v>
+        <v>1.001162329338563</v>
       </c>
       <c r="E20">
-        <v>1.039094265694877</v>
+        <v>0.9958238382305136</v>
       </c>
       <c r="F20">
-        <v>1.049861696687456</v>
+        <v>1.001569841646054</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032711300949331</v>
+        <v>1.03670662439003</v>
       </c>
       <c r="J20">
-        <v>1.035542695550714</v>
+        <v>1.00624113840255</v>
       </c>
       <c r="K20">
-        <v>1.035446536733483</v>
+        <v>1.015184771330844</v>
       </c>
       <c r="L20">
-        <v>1.042457031844379</v>
+        <v>1.009940520053471</v>
       </c>
       <c r="M20">
-        <v>1.053187514539691</v>
+        <v>1.01558514333328</v>
       </c>
       <c r="N20">
-        <v>1.015744002762139</v>
+        <v>1.005508256638414</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02802882023325</v>
+        <v>0.9709441876515695</v>
       </c>
       <c r="D21">
-        <v>1.031152375731659</v>
+        <v>0.9963740411419165</v>
       </c>
       <c r="E21">
-        <v>1.037943066024169</v>
+        <v>0.9899808497728784</v>
       </c>
       <c r="F21">
-        <v>1.048559206517055</v>
+        <v>0.9950074063286966</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032477013931846</v>
+        <v>1.034993576856779</v>
       </c>
       <c r="J21">
-        <v>1.034672531722416</v>
+        <v>1.00170903442285</v>
       </c>
       <c r="K21">
-        <v>1.034750648704336</v>
+        <v>1.011424435590949</v>
       </c>
       <c r="L21">
-        <v>1.041515987806387</v>
+        <v>1.005154557081136</v>
       </c>
       <c r="M21">
-        <v>1.052093222866469</v>
+        <v>1.010083986301476</v>
       </c>
       <c r="N21">
-        <v>1.015448168733766</v>
+        <v>1.003943837944351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027228871178122</v>
+        <v>0.9664926900274071</v>
       </c>
       <c r="D22">
-        <v>1.030582056572546</v>
+        <v>0.9932841351807697</v>
       </c>
       <c r="E22">
-        <v>1.037219670160321</v>
+        <v>0.9862122960535719</v>
       </c>
       <c r="F22">
-        <v>1.047740826873997</v>
+        <v>0.9907744302387009</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03232822404597</v>
+        <v>1.033875678851039</v>
       </c>
       <c r="J22">
-        <v>1.034124899208959</v>
+        <v>0.9987774007295835</v>
       </c>
       <c r="K22">
-        <v>1.034312236823816</v>
+        <v>1.008989819079148</v>
       </c>
       <c r="L22">
-        <v>1.040924081415303</v>
+        <v>1.002061929201395</v>
       </c>
       <c r="M22">
-        <v>1.051405133599678</v>
+        <v>1.006530889943023</v>
       </c>
       <c r="N22">
-        <v>1.015261842321871</v>
+        <v>1.002931525390772</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027652938628012</v>
+        <v>0.9688646970863778</v>
       </c>
       <c r="D23">
-        <v>1.030884410660365</v>
+        <v>0.9949299502585939</v>
       </c>
       <c r="E23">
-        <v>1.037603117344726</v>
+        <v>0.9882194250034618</v>
       </c>
       <c r="F23">
-        <v>1.048174613705914</v>
+        <v>0.9930289544798948</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032407241070673</v>
+        <v>1.034472284271233</v>
       </c>
       <c r="J23">
-        <v>1.034415259554495</v>
+        <v>1.000339594620554</v>
       </c>
       <c r="K23">
-        <v>1.034544730653955</v>
+        <v>1.010287361717888</v>
       </c>
       <c r="L23">
-        <v>1.041237884564223</v>
+        <v>1.003709609024623</v>
       </c>
       <c r="M23">
-        <v>1.051769909033847</v>
+        <v>1.008423739289411</v>
       </c>
       <c r="N23">
-        <v>1.015360648184825</v>
+        <v>1.003470990733559</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029322474687878</v>
+        <v>0.9779413486454935</v>
       </c>
       <c r="D24">
-        <v>1.032074370520172</v>
+        <v>1.001241321001578</v>
       </c>
       <c r="E24">
-        <v>1.039113572673073</v>
+        <v>0.9959202660493125</v>
       </c>
       <c r="F24">
-        <v>1.049883542438527</v>
+        <v>1.001678137388489</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032715203638337</v>
+        <v>1.036734676453613</v>
       </c>
       <c r="J24">
-        <v>1.03555727507646</v>
+        <v>1.006315791104257</v>
       </c>
       <c r="K24">
-        <v>1.035458188488383</v>
+        <v>1.015246672663435</v>
       </c>
       <c r="L24">
-        <v>1.042472804624223</v>
+        <v>1.010019407193986</v>
       </c>
       <c r="M24">
-        <v>1.053205859426512</v>
+        <v>1.015675847005109</v>
       </c>
       <c r="N24">
-        <v>1.015748956972551</v>
+        <v>1.00553401903772</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031259965827035</v>
+        <v>0.9879821169711227</v>
       </c>
       <c r="D25">
-        <v>1.033454460450133</v>
+        <v>1.008246000155842</v>
       </c>
       <c r="E25">
-        <v>1.040868165516526</v>
+        <v>1.0044771568233</v>
       </c>
       <c r="F25">
-        <v>1.051869064342855</v>
+        <v>1.011287727932604</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033066112983435</v>
+        <v>1.039193034901048</v>
       </c>
       <c r="J25">
-        <v>1.036880243382014</v>
+        <v>1.012920811904569</v>
       </c>
       <c r="K25">
-        <v>1.036514379389026</v>
+        <v>1.020717642168308</v>
       </c>
       <c r="L25">
-        <v>1.043904851720169</v>
+        <v>1.017006366014842</v>
       </c>
       <c r="M25">
-        <v>1.054871934926294</v>
+        <v>1.023713307586406</v>
       </c>
       <c r="N25">
-        <v>1.016198158896076</v>
+        <v>1.007812299227033</v>
       </c>
     </row>
   </sheetData>
